--- a/results/EstimatedParameters_AllScenarios.xlsx
+++ b/results/EstimatedParameters_AllScenarios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="30">
   <si>
     <t>Genetic Algorithm Fitting - Estimated Parameters</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Path BA</t>
   </si>
   <si>
+    <t>Legend:</t>
+  </si>
+  <si>
     <t>RX</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>r_hat</t>
+  </si>
+  <si>
+    <t>Results presented in Table II</t>
   </si>
   <si>
     <t>AP1</t>
@@ -198,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border/>
     <border>
       <right style="double">
@@ -243,6 +249,22 @@
       <left style="double">
         <color rgb="FF000000"/>
       </left>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="double">
@@ -252,11 +274,16 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -277,6 +304,11 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -293,6 +325,10 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,7 +341,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -314,11 +350,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -340,7 +376,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -355,7 +391,7 @@
     <xf borderId="2" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -413,7 +449,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -422,7 +458,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -707,821 +743,831 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="9"/>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23">
         <v>70.0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>0.0846</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="24">
         <v>1.0446051885760477</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="F5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="23">
         <v>1.0728</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="23">
         <v>1.0154</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="26">
         <v>1.0898623766329398</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
         <v>15.72048456</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>0.35152482</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="24">
         <v>1.0461546635177803</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="F6" s="28"/>
+      <c r="G6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="29">
         <v>1.04898163</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="23">
         <v>1.02272303</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="26">
         <v>1.0903919845633496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
-      <c r="B7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31">
         <v>7.47675168</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="31">
         <v>0.53645041</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="32">
         <v>1.0549524254676133</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="35">
         <v>69.3081183</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="35">
         <v>0.0349615476</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="36">
         <v>1.0595693842311602</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23">
         <v>70.0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="23">
         <v>0.0818</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="24">
         <v>1.0307278981380101</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="F8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="23">
         <v>0.5874</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="23">
         <v>1.1176</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="26">
         <v>1.0960839383915815</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
         <v>11.79633316</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>0.43978377</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="24">
         <v>1.0330040658196848</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="F9" s="28"/>
+      <c r="G9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="29">
         <v>36.52371261</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="23">
         <v>0.06943921</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="26">
         <v>1.0223143841304396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="31">
         <v>5.29233708</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="31">
         <v>0.67266351</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="32">
         <v>1.0531464000793052</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="35">
         <v>0.34683056</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="35">
         <v>1.16232437</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="36">
         <v>1.1037895360982546</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
         <v>3.9358</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>0.7003</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="24">
         <v>1.0468046618161384</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="F11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="23">
         <v>0.8707</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="23">
         <v>1.0208</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="26">
         <v>1.0938464243210744</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23">
         <v>3.97374189</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="23">
         <v>0.69561447</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="24">
         <v>1.046615903758394</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="F12" s="28"/>
+      <c r="G12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="29">
         <v>0.88514896</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="23">
         <v>1.01684344</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="26">
         <v>1.093402775741858</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="B13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="31">
         <v>1.73389953</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="31">
         <v>1.03047617</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="32">
         <v>1.0744754115381143</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="30">
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="35">
         <v>0.50819333</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="35">
         <v>1.09585054</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="36">
         <v>1.1057660557278832</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23">
         <v>70.0</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="23">
         <v>0.1023</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="24">
         <v>1.0246462804304712</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="F14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="23">
         <v>1.2076</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="23">
         <v>0.9643</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="26">
         <v>1.0927945827098522</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23">
         <v>19.88425992</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>0.34129863</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="24">
         <v>1.025591161233364</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="F15" s="28"/>
+      <c r="G15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="29">
         <v>1.16293022</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="23">
         <v>0.97668072</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="26">
         <v>1.093700644600706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="31">
         <v>65.67481912</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="31">
         <v>0.07532123</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="32">
         <v>1.0422484636592177</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="F16" s="33"/>
+      <c r="G16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="31">
         <v>0.96506989</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="31">
         <v>1.01736434</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="39">
         <v>1.0982060189235898</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
         <v>70.0</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>0.0917</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="24">
         <v>1.0350362312499017</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="F17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="23">
         <v>1.1126</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="23">
         <v>1.0574</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="26">
         <v>1.086876257906115</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23">
         <v>22.72086733</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="23">
         <v>0.27091779</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="24">
         <v>1.0359018341522521</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="24">
+      <c r="F18" s="28"/>
+      <c r="G18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="29">
         <v>14.56927014</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="23">
         <v>0.19077534</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="26">
         <v>1.0484144791064267</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
-      <c r="B19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="31">
         <v>30.72492824</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="31">
         <v>0.15593862</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="32">
         <v>1.0459623798206128</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="26">
+      <c r="F19" s="33"/>
+      <c r="G19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="31">
         <v>1.18087505</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="31">
         <v>1.02573257</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="39">
         <v>1.0904224915141836</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23">
         <v>2.9856</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="23">
         <v>0.7548</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="24">
         <v>1.0627323275406653</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="F20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="23">
         <v>0.7045</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="23">
         <v>1.0284</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="26">
         <v>1.1054410884348382</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="23">
         <v>5.84647829</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>0.47134727</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="24">
         <v>1.0540235338928634</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="F21" s="28"/>
+      <c r="G21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="29">
         <v>0.7233825</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="23">
         <v>1.0236589</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="26">
         <v>1.1047994252351871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="B22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="31">
         <v>1.54990018</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="31">
         <v>0.9905569</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="32">
         <v>1.08649162445</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="30">
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="35">
         <v>0.5778308</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="35">
         <v>1.05624509</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="36">
         <v>1.1076304257287266</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="A23" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="23">
         <v>2.7588</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>0.8098</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="24">
         <v>1.0661144403862093</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="F23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="23">
         <v>1.3334</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="23">
         <v>0.9913</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="26">
         <v>1.0748488265798126</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="23">
         <v>2.78397015</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="23">
         <v>0.80539086</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="24">
         <v>1.0659683062830714</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="24">
+      <c r="F24" s="28"/>
+      <c r="G24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="29">
         <v>1.38216279</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="23">
         <v>0.97753191</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="26">
         <v>1.0739921321871964</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="B25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="31">
         <v>1.50021448</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="31">
         <v>1.05074363</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="32">
         <v>1.080356779031816</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="30">
+      <c r="F25" s="33"/>
+      <c r="G25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="35">
         <v>0.74395458</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="35">
         <v>1.11000359</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="36">
         <v>1.0957491181835375</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="23">
         <v>70.0</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="23">
         <v>0.0546</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="24">
         <v>1.0330537256115966</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="F26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="23">
         <v>1.5666</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="23">
         <v>0.9388</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="26">
         <v>1.0775899034419356</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="23">
         <v>6.5505247</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="23">
         <v>0.49295002</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="24">
         <v>1.041348049405193</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="24">
+      <c r="F27" s="28"/>
+      <c r="G27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="29">
         <v>34.73086384</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="23">
         <v>0.08100074</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="26">
         <v>1.0381346059158225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="26">
+      <c r="B28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="31">
         <v>1.54902694</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="31">
         <v>1.10804034</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="32">
         <v>1.0742346764092099</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="26">
+      <c r="F28" s="33"/>
+      <c r="G28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="31">
         <v>0.84815486</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="31">
         <v>1.08987089</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="39">
         <v>1.0961615483130214</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="23">
         <v>70.0</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="23">
         <v>0.0546</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="24">
         <v>1.0330537256115966</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="F29" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="23">
         <v>1.15666</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="23">
         <v>0.9388</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="26">
         <v>1.0775899034419356</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="23">
         <v>30.50792547</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="23">
         <v>0.09764915</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="24">
         <v>1.032423755054096</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="24">
+      <c r="F30" s="28"/>
+      <c r="G30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="29">
         <v>0.77606801</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="23">
         <v>1.00774766</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="26">
         <v>1.1094343648905058</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="B31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="41">
         <v>0.93524728</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="41">
         <v>1.11504924</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="42">
         <v>1.0893289585795467</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="40">
+      <c r="F31" s="43"/>
+      <c r="G31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="45">
         <v>0.69327424</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="45">
         <v>1.03705708</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="46">
         <v>1.108708013861179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -1544,6 +1590,8 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1560,14 +1608,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="43" t="s">
-        <v>20</v>
+      <c r="A2" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1594,820 +1642,830 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="9"/>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23">
         <v>3.7795</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>0.9804</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>1.101</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="F5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="22">
         <v>2.7032</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="23">
         <v>0.7929</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="50">
         <v>1.1482</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
         <v>3.75178229</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>0.99261512</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="29">
         <v>1.10065154</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="F6" s="28"/>
+      <c r="G6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="29">
         <v>2.7575443</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="23">
         <v>0.76983618</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="50">
         <v>1.15101391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="35">
         <v>3.20625261</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="35">
         <v>0.96189069</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="51">
         <v>1.11692893</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="33"/>
+      <c r="G7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="31">
         <v>2.38632733</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="31">
         <v>0.94033275</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="52">
         <v>1.1333298</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23">
         <v>3.6024</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="23">
         <v>1.0318</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="29">
         <v>1.086</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="F8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="23">
         <v>2.3342</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="23">
         <v>0.9568</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="50">
         <v>1.1278</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
         <v>3.59873532</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>1.03358061</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="29">
         <v>1.08599705</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="F9" s="28"/>
+      <c r="G9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="29">
         <v>2.29312457</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="23">
         <v>0.98373982</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="50">
         <v>1.12588192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35">
         <v>2.50415618</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="35">
         <v>1.3663709</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="51">
         <v>1.08863886</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="F10" s="33"/>
+      <c r="G10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="31">
         <v>2.11399411</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="31">
         <v>1.10579345</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="52">
         <v>1.11494346</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
         <v>2.9752</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>0.9274</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="29">
         <v>1.114</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="F11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="23">
         <v>2.5463</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="23">
         <v>0.8241</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="50">
         <v>1.1439</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23">
         <v>2.97532078</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="23">
         <v>0.92740329</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="29">
         <v>1.11401773</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="F12" s="28"/>
+      <c r="G12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="29">
         <v>2.54877724</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="23">
         <v>0.8229324</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="50">
         <v>1.14399187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="B13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35">
         <v>2.59864681</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="35">
         <v>0.99629297</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="51">
         <v>1.11865391</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="F13" s="33"/>
+      <c r="G13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="31">
         <v>2.19636829</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="31">
         <v>1.01195728</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="52">
         <v>1.12519736</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23">
         <v>3.896</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="23">
         <v>1.1092</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="29">
         <v>1.0701</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="F14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="23">
         <v>2.8763</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="23">
         <v>0.714</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="50">
         <v>1.1614</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23">
         <v>3.92474784</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>1.09580256</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="29">
         <v>1.07040501</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="F15" s="28"/>
+      <c r="G15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="29">
         <v>2.82125082</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="23">
         <v>0.73445778</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="50">
         <v>1.15927131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="35">
         <v>2.55933129</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="35">
         <v>1.46065378</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="51">
         <v>1.07954659</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="30">
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="35">
         <v>2.51019532</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="35">
         <v>0.85143158</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="53">
         <v>1.1442481</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
         <v>4.0603</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>0.9393</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="29">
         <v>1.0889</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="F17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="23">
         <v>2.6665</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="23">
         <v>0.8535</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="50">
         <v>1.1417</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23">
         <v>4.07111804</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="23">
         <v>0.93526781</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="29">
         <v>1.08904517</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="24">
+      <c r="F18" s="28"/>
+      <c r="G18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="29">
         <v>2.65425481</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="23">
         <v>0.859669</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="50">
         <v>1.14117444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="35">
         <v>2.84248199</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="35">
         <v>1.20143468</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="51">
         <v>1.09369641</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="30">
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="35">
         <v>2.59880503</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="35">
         <v>0.86357887</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="53">
         <v>1.14012363</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23">
         <v>3.1744</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="23">
         <v>0.7512</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="29">
         <v>1.141</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="F20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="23">
         <v>2.5138</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="23">
         <v>0.8109</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="50">
         <v>1.151</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="23">
         <v>3.17527023</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>0.75091404</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="29">
         <v>1.14097961</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="F21" s="28"/>
+      <c r="G21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="29">
         <v>2.48016558</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="23">
         <v>0.82769007</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="50">
         <v>1.14931588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="35">
         <v>2.58458292</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="35">
         <v>0.92186803</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="51">
         <v>1.1335592</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="F22" s="33"/>
+      <c r="G22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="31">
         <v>2.30051892</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="31">
         <v>0.92164346</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="52">
         <v>1.13736736</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="A23" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="23">
         <v>3.3109</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>0.7207</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="29">
         <v>1.1448</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="F23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="23">
         <v>2.6677</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="23">
         <v>0.8501</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="50">
         <v>1.1337</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="23">
         <v>3.25677678</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="23">
         <v>0.73915079</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="29">
         <v>1.14329762</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="24">
+      <c r="F24" s="28"/>
+      <c r="G24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="29">
         <v>2.62599915</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="23">
         <v>0.87136973</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="50">
         <v>1.13217151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="35">
         <v>2.76138091</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="35">
         <v>0.87173232</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="51">
         <v>1.13718441</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="F25" s="33"/>
+      <c r="G25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="31">
         <v>2.3093244</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="31">
         <v>1.0015772</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="52">
         <v>1.12409717</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="23">
         <v>3.0939</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="23">
         <v>0.9055</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="29">
         <v>1.1124</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="F26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="23">
         <v>2.9771</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="23">
         <v>0.7297</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="50">
         <v>1.1493</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="23">
         <v>3.08095785</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="23">
         <v>0.91172942</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="29">
         <v>1.11209586</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="24">
+      <c r="F27" s="28"/>
+      <c r="G27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="29">
         <v>2.97694269</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="23">
         <v>0.72978597</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="50">
         <v>1.14922804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="35">
         <v>2.48606064</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="35">
         <v>1.1002484</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="51">
         <v>1.11064302</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="30">
+      <c r="F28" s="33"/>
+      <c r="G28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="35">
         <v>2.32180533</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="35">
         <v>0.99916757</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="53">
         <v>1.1253206</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="23">
         <v>2.8416</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="23">
         <v>0.8298</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="29">
         <v>1.1307</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="F29" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="23">
         <v>2.5837</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="23">
         <v>0.7771</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="50">
         <v>1.1606</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="23">
         <v>2.8707444</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="23">
         <v>0.81690906</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="29">
         <v>1.13167746</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="24">
+      <c r="F30" s="28"/>
+      <c r="G30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="29">
         <v>2.58384809</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="23">
         <v>0.77706152</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="50">
         <v>1.16063554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="40">
+      <c r="B31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="45">
         <v>2.40001389</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="45">
         <v>0.99488228</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="54">
         <v>1.12375998</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="36">
+      <c r="F31" s="43"/>
+      <c r="G31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="41">
         <v>2.39731008</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="41">
         <v>0.87321869</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="55">
         <v>1.14647615</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -2423,6 +2481,8 @@
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
@@ -2453,7 +2513,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2468,7 +2528,7 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
@@ -2476,7 +2536,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="57" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="7"/>
@@ -2484,988 +2544,998 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="9"/>
+      <c r="N3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="53" t="s">
+      <c r="E4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
+      <c r="K4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23">
         <v>1.0124</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>1.1497</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>0.4435</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="24">
         <v>1.175967686630887</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="G5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="23">
         <v>0.7422</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="23">
         <v>1.0136</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="29">
         <v>0.3555</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="26">
         <v>1.1579291860904102</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
         <v>1.01728207</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>1.15103112</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="29">
         <v>0.45191102</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="24">
         <v>1.1743763366144602</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="G6" s="28"/>
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="29">
         <v>1.12101239</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="23">
         <v>1.02451153</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="29">
         <v>0.51689093</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="26">
         <v>1.1496596061443578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="35">
         <v>0.15148694</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="35">
         <v>1.00570262</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="51">
         <v>0.1</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="64">
         <v>1.1553089586772882</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="30">
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="35">
         <v>0.50584305</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="35">
         <v>1.01617786</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="51">
         <v>0.21407014</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="36">
         <v>1.1645300683108186</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23">
         <v>2.4447</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="23">
         <v>0.9429</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="29">
         <v>1.5968</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="24">
         <v>1.0232301793829186</v>
       </c>
-      <c r="G8" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="G8" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="23">
         <v>1.3112</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="23">
         <v>1.0473</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="29">
         <v>0.66</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="26">
         <v>1.0919249058428881</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
         <v>2.77711023</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>0.9349982</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="29">
         <v>1.53071118</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="24">
         <v>1.0236997069453522</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="G9" s="28"/>
+      <c r="H9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="29">
         <v>2.17257801</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="23">
         <v>1.05982386</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="29">
         <v>0.77811378</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="26">
         <v>1.0872792649545011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35">
         <v>4.18469921</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="35">
         <v>0.93555349</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="51">
         <v>1.32708219</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="64">
         <v>1.0281572301939037</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="26">
+      <c r="G10" s="33"/>
+      <c r="H10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="31">
         <v>0.62829907</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="31">
         <v>1.04688055</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="67">
         <v>0.3790735</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="39">
         <v>1.0990957283148726</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
         <v>0.5103</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>1.0093</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="29">
         <v>0.2202</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="24">
         <v>1.0858637115218466</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="G11" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="23">
         <v>0.0655</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="23">
         <v>1.0418</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="29">
         <v>0.01</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="26">
         <v>1.0997272389097217</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23">
         <v>0.54244848</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="23">
         <v>1.0108363</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="29">
         <v>0.24481081</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="24">
         <v>1.0837133523215445</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="G12" s="28"/>
+      <c r="H12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="29">
         <v>4.01895151</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="23">
         <v>1.0107692</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="29">
         <v>1.05895772</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="26">
         <v>1.0744965286123545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="B13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="31">
         <v>1.86275563</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="31">
         <v>1.019949</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="67">
         <v>0.71038042</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="32">
         <v>1.0616137621564634</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="26">
+      <c r="G13" s="33"/>
+      <c r="H13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="31">
         <v>0.13045133</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="31">
         <v>1.05025927</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="67">
         <v>0.1</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="39">
         <v>1.0900436917848753</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23">
         <v>1.4423</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="23">
         <v>0.7954</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="29">
         <v>5.0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="24">
         <v>1.1562006746235707</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="G14" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="23">
         <v>15.0</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="23">
         <v>1.0849</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="29">
         <v>0.8798</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="26">
         <v>1.1709397934992216</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23">
         <v>1.45357362</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>0.79335175</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="29">
         <v>5.0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="24">
         <v>1.1559508683330793</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="G15" s="28"/>
+      <c r="H15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="29">
         <v>15.0</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="23">
         <v>1.08556773</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="29">
         <v>0.87966039</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="26">
         <v>1.1709647005781174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="31">
         <v>1.41430945</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="31">
         <v>0.84626779</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="67">
         <v>5.0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="32">
         <v>1.128933815597708</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="35">
         <v>0.17254129</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="35">
         <v>0.95881699</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="51">
         <v>0.12554368</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="36">
         <v>1.1779328758464975</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
         <v>3.9094</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>0.8872</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="29">
         <v>1.8299</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="24">
         <v>1.0225947388873073</v>
       </c>
-      <c r="G17" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="G17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="23">
         <v>1.351</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="23">
         <v>1.0774</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="29">
         <v>0.4229</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="26">
         <v>1.1896217886370442</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23">
         <v>3.9832396</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="23">
         <v>0.88455517</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="29">
         <v>1.82088416</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="24">
         <v>1.023081643858397</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="G18" s="28"/>
+      <c r="H18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="29">
         <v>1.64171468</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="23">
         <v>1.09107502</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="29">
         <v>0.48941482</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="26">
         <v>1.1837856436027596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
-      <c r="B19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="31">
         <v>0.66716864</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="31">
         <v>1.25553885</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="67">
         <v>0.1</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="32">
         <v>1.1971023473371023</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="26">
+      <c r="G19" s="33"/>
+      <c r="H19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="31">
         <v>0.97722717</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="31">
         <v>1.03476709</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="67">
         <v>0.34469228</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="39">
         <v>1.1893388751739347</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23">
         <v>1.6489</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="23">
         <v>0.9321</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="29">
         <v>0.0918</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="24">
         <v>1.3946325680981353</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="18">
+      <c r="G20" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="23">
         <v>3.9114</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="23">
         <v>1.0536</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="29">
         <v>0.8415</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="26">
         <v>1.1726892171415237</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="23">
         <v>1.61695488</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>0.93581095</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="29">
         <v>0.1</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="24">
         <v>1.3729362731022878</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="G21" s="28"/>
+      <c r="H21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="29">
         <v>4.58586682</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="23">
         <v>1.06019492</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="29">
         <v>0.85637741</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="26">
         <v>1.1713852995492133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="B22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="31">
         <v>1.61996189</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="31">
         <v>0.93497927</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="67">
         <v>0.10202724</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="32">
         <v>1.370940396224431</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="26">
+      <c r="G22" s="33"/>
+      <c r="H22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="31">
         <v>3.22743825</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="31">
         <v>1.04948334</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="68">
         <v>0.81902483</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="39">
         <v>1.1737933165596062</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="A23" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="23">
         <v>3.5731</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>0.9693</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="29">
         <v>1.0611</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="24">
         <v>1.0681760154581266</v>
       </c>
-      <c r="G23" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="G23" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="23">
         <v>0.2794</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="23">
         <v>0.9958</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="29">
         <v>0.1274</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="26">
         <v>1.1835539700410793</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="23">
         <v>3.45948687</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="23">
         <v>0.96986549</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="29">
         <v>1.06311438</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="24">
         <v>1.0680867661384068</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="G24" s="28"/>
+      <c r="H24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="29">
         <v>0.39047172</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="23">
         <v>0.99729136</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="29">
         <v>0.2870923</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="26">
         <v>1.1676855527067207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="B25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="31">
         <v>0.39347707</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="31">
         <v>0.99437892</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="67">
         <v>3.49108511</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="32">
         <v>1.0647771316101788</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="26">
+      <c r="G25" s="33"/>
+      <c r="H25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="31">
         <v>0.39972843</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="31">
         <v>1.01163145</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="67">
         <v>0.22239533</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="39">
         <v>1.1801354074850903</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="23">
         <v>4.2103</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="23">
         <v>0.8957</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="29">
         <v>1.8455</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="24">
         <v>0.9402127418834527</v>
       </c>
-      <c r="G26" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="G26" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="23">
         <v>0.7634</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="23">
         <v>0.9225</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="29">
         <v>0.1181</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="26">
         <v>1.2573782247199925</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="23">
         <v>4.26860523</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="23">
         <v>0.89403052</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="29">
         <v>1.83751112</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="24">
         <v>0.9403935452777205</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="G27" s="28"/>
+      <c r="H27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="29">
         <v>1.8915484</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="23">
         <v>0.97536958</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="29">
         <v>0.49824241</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="26">
         <v>1.1642484442763925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="35">
         <v>8.34201961</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="35">
         <v>0.95060354</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="51">
         <v>1.35247485</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="64">
         <v>0.9556930364923666</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="26">
+      <c r="G28" s="33"/>
+      <c r="H28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="31">
         <v>0.77750131</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="31">
         <v>0.94100115</v>
       </c>
-      <c r="K28" s="62">
+      <c r="K28" s="67">
         <v>0.1</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="39">
         <v>1.2778580985383314</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="23">
         <v>15.0</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="23">
         <v>1.0721</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="29">
         <v>0.9724</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="24">
         <v>1.0166612021711068</v>
       </c>
-      <c r="G29" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="18">
+      <c r="G29" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="23">
         <v>9.0267</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="23">
         <v>1.086</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="29">
         <v>0.8673</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="26">
         <v>1.1723480711802277</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="23">
         <v>14.99999983</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="23">
         <v>1.07313505</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="29">
         <v>0.97201533</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="24">
         <v>1.0168222263503095</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="G30" s="28"/>
+      <c r="H30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="29">
         <v>9.06548739</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="23">
         <v>1.08694831</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="29">
         <v>0.86738727</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="26">
         <v>1.172360426660675</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="B31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="41">
         <v>15.0</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="41">
         <v>1.0480013</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="69">
         <v>0.98979127</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="42">
         <v>1.0106764516896591</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="G31" s="43"/>
+      <c r="H31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="41">
         <v>5.04415285</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="41">
         <v>1.05484224</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="69">
         <v>0.8261822</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="70">
         <v>1.1759821682321547</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -3481,6 +3551,8 @@
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:F3"/>
@@ -3511,7 +3583,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3542,988 +3614,998 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="9"/>
+      <c r="N3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="53" t="s">
+      <c r="E4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
+      <c r="K4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23">
         <v>0.3756</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>0.9891</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>2.1224</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="29">
         <v>1.2589</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="G5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="23">
         <v>0.001</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="23">
         <v>1.0186</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="29">
         <v>6.1614</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="50">
         <v>1.1659</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
         <v>0.001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>1.11202742</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="29">
         <v>6.76825805</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="29">
         <v>1.16970831</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="G6" s="28"/>
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="29">
         <v>0.00100000042</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="23">
         <v>1.01698193</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="29">
         <v>6.27648414</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="50">
         <v>1.16442079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="35">
         <v>0.001</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="35">
         <v>0.98621218</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="51">
         <v>36.0763996</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="51">
         <v>1.15317535</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="30">
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="35">
         <v>0.001</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="35">
         <v>1.03347164</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="51">
         <v>5.93450069</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="53">
         <v>1.16631454</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23">
         <v>0.904</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="23">
         <v>0.9306</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="29">
         <v>11.8608</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="29">
         <v>1.0302</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="G8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="23">
         <v>0.001</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="23">
         <v>1.0333</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="29">
         <v>8.5856</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="50">
         <v>1.1033</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
         <v>0.8416314</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>0.957275</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="29">
         <v>29.58287496</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="29">
         <v>1.02305349</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="G9" s="28"/>
+      <c r="H9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="29">
         <v>0.001</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="23">
         <v>1.03158549</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="29">
         <v>8.83452213</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="50">
         <v>1.10176916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="31">
         <v>0.80464576</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="31">
         <v>0.95828003</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="67">
         <v>21.13125173</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="67">
         <v>1.02813715</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="35">
         <v>0.001</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="35">
         <v>1.04135799</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="51">
         <v>9.16674025</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="53">
         <v>1.09996917</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
         <v>0.2471</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>0.9825</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="29">
         <v>3.8411</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="29">
         <v>1.0953</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="G11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="23">
         <v>0.4371</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="23">
         <v>0.9962</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="29">
         <v>8.1161</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="50">
         <v>1.0883</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23">
         <v>0.02697153</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="23">
         <v>1.01156516</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="29">
         <v>6.83520955</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="29">
         <v>1.07911818</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="G12" s="28"/>
+      <c r="H12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="29">
         <v>0.24794915</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="23">
         <v>1.02321018</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="29">
         <v>40.80596609</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="50">
         <v>1.07671861</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="B13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35">
         <v>0.001</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="35">
         <v>0.969300884</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="51">
         <v>18.365376</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="51">
         <v>1.06159921</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="G13" s="33"/>
+      <c r="H13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="35">
         <v>0.31869759</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="35">
         <v>1.03282981</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="51">
         <v>8.95234436</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="53">
         <v>1.09006061</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23">
         <v>1.1917</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="23">
         <v>0.7924</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="29">
         <v>100.0</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="29">
         <v>1.1573</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="G14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="23">
         <v>0.001</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="23">
         <v>0.942</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="29">
         <v>18.9127</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="50">
         <v>1.1774</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23">
         <v>1.17993103</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>0.79514371</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="29">
         <v>100.0</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="29">
         <v>1.15751178</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="G15" s="28"/>
+      <c r="H15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="29">
         <v>0.001</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="23">
         <v>0.941569426</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="29">
         <v>19.2742135</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="50">
         <v>1.17692681</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="35">
         <v>1.15799539</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="35">
         <v>0.8443539</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="51">
         <v>96.10528996</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="51">
         <v>1.12915554</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="26">
+      <c r="G16" s="33"/>
+      <c r="H16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="31">
         <v>0.05582449</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="31">
         <v>0.96839768</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="67">
         <v>13.09773484</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="52">
         <v>1.17786911</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
         <v>1.1036</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>0.7997</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="29">
         <v>2.1831</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="29">
         <v>1.1183</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="G17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="23">
         <v>0.001</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="23">
         <v>1.0746</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="29">
         <v>3.7207</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="50">
         <v>1.2232</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23">
         <v>1.18289355</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="23">
         <v>0.82637123</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="29">
         <v>2.7249866</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="29">
         <v>1.08714565</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="G18" s="28"/>
+      <c r="H18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="29">
         <v>0.001</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="23">
         <v>1.0704562</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="29">
         <v>3.81016884</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="50">
         <v>1.21946137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="35">
         <v>0.54417155</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="35">
         <v>0.87502018</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="51">
         <v>1.44167172</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="51">
         <v>1.29618921</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="30">
+      <c r="G19" s="33"/>
+      <c r="H19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="35">
         <v>0.001</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="35">
         <v>1.02789819</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="51">
         <v>4.81538723</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="53">
         <v>1.19896759</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23">
         <v>0.1016</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="23">
         <v>0.9056</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="29">
         <v>1.3316</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="29">
         <v>1.5753</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="18">
+      <c r="G20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="23">
         <v>0.001</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="23">
         <v>0.9971</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="29">
         <v>11.1779</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="50">
         <v>1.1846</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="23">
         <v>0.0996783</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>0.92835895</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="29">
         <v>1.43097146</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="29">
         <v>1.48053285</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="G21" s="28"/>
+      <c r="H21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="29">
         <v>0.001</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="23">
         <v>0.994570271</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="29">
         <v>11.6058682</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="50">
         <v>1.18345577</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="35">
         <v>0.03789725</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="35">
         <v>0.98368327</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="51">
         <v>1.36153556</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="51">
         <v>1.6026043</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="G22" s="33"/>
+      <c r="H22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="35">
         <v>0.001</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="35">
         <v>0.997089141</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="51">
         <v>16.7357677</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="53">
         <v>1.17545842</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="A23" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="23">
         <v>0.4413</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>0.9683</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="29">
         <v>13.1716</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="29">
         <v>1.0736</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="G23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="23">
         <v>0.1165</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="23">
         <v>1.0022</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="29">
         <v>7.8475</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="50">
         <v>1.1769</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="23">
         <v>0.38256848</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="23">
         <v>0.97871464</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="29">
         <v>20.84196786</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="29">
         <v>1.07087905</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="G24" s="28"/>
+      <c r="H24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="29">
         <v>0.05130732</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="23">
         <v>1.00502221</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="29">
         <v>9.46816617</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="50">
         <v>1.17439177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="35">
         <v>59.564548</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="35">
         <v>0.0339675178</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="51">
         <v>51.5597444</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="51">
         <v>1.01382064</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="30">
+      <c r="G25" s="33"/>
+      <c r="H25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="35">
         <v>0.07033079</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="35">
         <v>1.01828278</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="51">
         <v>7.38636967</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="53">
         <v>1.18083627</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="23">
         <v>1.3531</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="23">
         <v>0.885</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="29">
         <v>6.1168</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="29">
         <v>0.9553</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="G26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="23">
         <v>0.0255</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="23">
         <v>0.964</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="29">
         <v>3.069</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="50">
         <v>1.2414</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="23">
         <v>1.35985181</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="23">
         <v>0.89981636</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="29">
         <v>8.22557972</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="29">
         <v>0.94826979</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="G27" s="28"/>
+      <c r="H27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="29">
         <v>0.001</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="23">
         <v>0.959877836</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="29">
         <v>3.41775403</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="50">
         <v>1.22645355</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="26">
+      <c r="B28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="31">
         <v>1.11834979</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="31">
         <v>0.95056334</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="67">
         <v>6.24898891</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="67">
         <v>0.95810181</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="30">
+      <c r="G28" s="33"/>
+      <c r="H28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="35">
         <v>0.10817289</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="35">
         <v>0.97206254</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="51">
         <v>2.10213457</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="53">
         <v>1.31017435</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="23">
         <v>0.1399</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="23">
         <v>0.9899</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="29">
         <v>100.0</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="29">
         <v>1.0131</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="18">
+      <c r="G29" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="23">
         <v>0.001</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="23">
         <v>0.9658</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="29">
         <v>13.2003</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="50">
         <v>1.1825</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="23">
         <v>0.13678268</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="23">
         <v>0.99058904</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="29">
         <v>96.10777875</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="29">
         <v>1.01334472</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="G30" s="28"/>
+      <c r="H30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="29">
         <v>0.001</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="23">
         <v>0.965100321</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="29">
         <v>13.454452</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="50">
         <v>1.18183578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="40">
+      <c r="B31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="45">
         <v>0.18489019</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="45">
         <v>1.00145746</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="54">
         <v>72.26189948</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="54">
         <v>1.01078234</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="40">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="45">
         <v>0.001</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="45">
         <v>0.983565391</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="54">
         <v>15.1579877</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="71">
         <v>1.17711025</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -4539,6 +4621,8 @@
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:F3"/>
@@ -4569,7 +4653,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4600,988 +4684,998 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="9"/>
+      <c r="N3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="53" t="s">
+      <c r="E4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="59" t="s">
         <v>7</v>
       </c>
+      <c r="K4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="23">
         <v>1.9366</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>0.8443</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>2.9567</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="29">
         <v>1.2258</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="G5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="23">
         <v>0.001</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="23">
         <v>1.0186</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="29">
         <v>6.1736</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="50">
         <v>1.1659</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
         <v>0.00275313024</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>1.043584</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="29">
         <v>19.6457418</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="29">
         <v>1.13672228</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="G6" s="28"/>
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="29">
         <v>0.001</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="23">
         <v>1.00710418</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="29">
         <v>7.10666857</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="50">
         <v>1.1556385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
-      <c r="B7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31">
         <v>0.31315762</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="31">
         <v>1.01738435</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="67">
         <v>10.39008258</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="67">
         <v>1.15499912</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="26">
+      <c r="G7" s="33"/>
+      <c r="H7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="31">
         <v>0.001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="31">
         <v>1.03360027</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="67">
         <v>5.94217932</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="52">
         <v>1.1663174</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="A8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23">
         <v>1.0565</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="23">
         <v>0.9339</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="29">
         <v>23.7764</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="29">
         <v>1.0277</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="G8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="23">
         <v>0.001</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="23">
         <v>1.0333</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="29">
         <v>8.6018</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="50">
         <v>1.10333</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
         <v>1.07435903</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>0.93031653</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="29">
         <v>23.16775375</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="29">
         <v>1.02753062</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="G9" s="28"/>
+      <c r="H9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="29">
         <v>0.00198683602</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="23">
         <v>1.00514566</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="29">
         <v>15.7868045</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="50">
         <v>1.0837369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
-      <c r="B10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35">
         <v>1.00807658</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="35">
         <v>0.94095968</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="51">
         <v>26.39475329</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="51">
         <v>1.02848051</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="35">
         <v>0.00504657083</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="35">
         <v>1.03819726</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="51">
         <v>9.37595202</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="53">
         <v>1.09808746</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="A11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
         <v>0.5865</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>0.9828</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="29">
         <v>4.7946</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="29">
         <v>1.0899</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="G11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="23">
         <v>0.638</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="23">
         <v>0.9967</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="29">
         <v>11.3065</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="50">
         <v>1.0865</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23">
         <v>0.00106579199</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="23">
         <v>0.96942093</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="29">
         <v>23.5616771</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="29">
         <v>1.04447724</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="G12" s="28"/>
+      <c r="H12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="29">
         <v>0.36178022</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="23">
         <v>1.0186114</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="29">
         <v>29.97302592</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="50">
         <v>1.07753842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
-      <c r="B13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35">
         <v>0.00100011219</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="35">
         <v>0.968233068</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="51">
         <v>18.7276544</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="51">
         <v>1.06128116</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="G13" s="33"/>
+      <c r="H13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="35">
         <v>0.54957028</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="35">
         <v>1.02534181</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="51">
         <v>10.40973379</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="53">
         <v>1.09031257</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="A14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23">
         <v>1.2136</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="23">
         <v>0.794</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="29">
         <v>100.0</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="29">
         <v>1.1589</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="G14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="23">
         <v>0.001</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="23">
         <v>0.942</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="29">
         <v>18.9478</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="50">
         <v>1.1774</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23">
         <v>1.24135739</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>0.78955134</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="29">
         <v>74.80923003</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="29">
         <v>1.15997672</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="G15" s="28"/>
+      <c r="H15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="29">
         <v>0.001</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="23">
         <v>0.944513066</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="29">
         <v>17.1748209</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="50">
         <v>1.17982206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="35">
         <v>1.22588193</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="35">
         <v>0.83810593</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="51">
         <v>92.3761805</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="51">
         <v>1.12990322</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="35">
         <v>0.1074406</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="35">
         <v>0.96863551</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="51">
         <v>13.8368726</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="53">
         <v>1.17785586</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
         <v>1.9876</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>0.8391</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="29">
         <v>9.1532</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="29">
         <v>1.0512</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="G17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="23">
         <v>0.001</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="23">
         <v>1.0747</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="29">
         <v>3.7281</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="50">
         <v>1.2232</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23">
         <v>1.9295353</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="23">
         <v>0.84537087</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="29">
         <v>10.12324455</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="29">
         <v>1.04575474</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="G18" s="28"/>
+      <c r="H18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="29">
         <v>0.00105577378</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="23">
         <v>1.06834187</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="29">
         <v>3.88641624</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="50">
         <v>1.21634862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="35">
         <v>2.52415411</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="35">
         <v>0.85550049</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="51">
         <v>2.74314872</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="51">
         <v>1.17697961</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="30">
+      <c r="G19" s="33"/>
+      <c r="H19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="35">
         <v>0.001</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="35">
         <v>1.028102</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="51">
         <v>4.81919069</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="53">
         <v>1.19906282</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23">
         <v>1.0872</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="23">
         <v>0.8931</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="29">
         <v>1.6933</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="29">
         <v>1.3687</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="18">
+      <c r="G20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="23">
         <v>0.001</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="23">
         <v>0.9971</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="29">
         <v>11.1976</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="50">
         <v>1.1846</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="23">
         <v>0.98856245</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>0.90741131</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="29">
         <v>1.74061582</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="29">
         <v>1.34935036</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="G21" s="28"/>
+      <c r="H21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="29">
         <v>0.00133365119</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="23">
         <v>0.998240673</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="29">
         <v>10.911653</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="50">
         <v>1.18555139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
-      <c r="B22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="35">
         <v>1.56118499</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="35">
         <v>0.86137276</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="51">
         <v>1.31341122</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="51">
         <v>1.71718065</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="G22" s="33"/>
+      <c r="H22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="35">
         <v>0.001</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="35">
         <v>0.99713153</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="51">
         <v>16.7507958</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="53">
         <v>1.17553036</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="A23" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="23">
         <v>0.5888</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>0.9664</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="29">
         <v>16.7234</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="29">
         <v>1.0735</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="G23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="23">
         <v>0.2312</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="23">
         <v>1.0031</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="29">
         <v>8.7936</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="50">
         <v>1.1761</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="23">
         <v>0.50275807</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="23">
         <v>0.97545836</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="29">
         <v>22.21480394</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="29">
         <v>1.07170697</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="G24" s="28"/>
+      <c r="H24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="29">
         <v>0.10076424</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="23">
         <v>1.00358114</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="29">
         <v>10.59024431</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="50">
         <v>1.17206598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
-      <c r="B25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="35">
         <v>0.41048238</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="35">
         <v>0.9895158</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="51">
         <v>72.65816759</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="51">
         <v>1.06493435</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="30">
+      <c r="G25" s="33"/>
+      <c r="H25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="35">
         <v>0.26723429</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="35">
         <v>1.01447295</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="51">
         <v>7.40580649</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="53">
         <v>1.18111041</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="A26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="23">
         <v>1.7546</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="23">
         <v>0.8809</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="29">
         <v>17.1684</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="29">
         <v>0.9478</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="G26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="23">
         <v>0.1084</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="23">
         <v>0.9661</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="29">
         <v>3.2039</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="50">
         <v>1.2382</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="23">
         <v>1.80705734</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="23">
         <v>0.87087273</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="29">
         <v>16.45703093</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="29">
         <v>0.94821948</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="G27" s="28"/>
+      <c r="H27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="29">
         <v>0.001</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="23">
         <v>0.90208709</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="29">
         <v>7.76932315</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="50">
         <v>1.1425995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="35">
         <v>1.3765612</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="35">
         <v>0.97666229</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="51">
         <v>12.56884812</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="51">
         <v>0.95582873</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="30">
+      <c r="G28" s="33"/>
+      <c r="H28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="35">
         <v>0.69935987</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="35">
         <v>0.96201232</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="51">
         <v>2.22203321</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="53">
         <v>1.30935682</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="23">
         <v>0.1574</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="23">
         <v>0.9901</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="29">
         <v>100.0</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="29">
         <v>1.0133</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="18">
+      <c r="G29" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="23">
         <v>0.001</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="23">
         <v>0.9658</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="29">
         <v>13.2232</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="50">
         <v>1.1825</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="23">
         <v>0.21058549</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="23">
         <v>0.9880683</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="29">
         <v>58.73787804</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="29">
         <v>1.0136326</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="G30" s="28"/>
+      <c r="H30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="29">
         <v>0.010903641</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="23">
         <v>0.951418877</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="29">
         <v>22.7332212</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="50">
         <v>1.17060687</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="40">
+      <c r="B31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="45">
         <v>0.17511183</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="45">
         <v>1.00329049</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="54">
         <v>100.0</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="54">
         <v>1.01070642</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="40">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="45">
         <v>0.001</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="45">
         <v>0.98352467</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="54">
         <v>15.201883</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="71">
         <v>1.17686554</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -5597,6 +5691,8 @@
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:F3"/>
